--- a/학습자료/단답형/영단어.xlsx
+++ b/학습자료/단답형/영단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -6271,7 +6271,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr"/>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6289,7 +6291,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr"/>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6307,7 +6311,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr"/>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6325,7 +6331,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr"/>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6343,7 +6351,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr"/>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6361,7 +6371,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D297" t="inlineStr"/>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6379,7 +6391,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr"/>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -6397,7 +6411,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr"/>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6415,7 +6431,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D300" t="inlineStr"/>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -6433,7 +6451,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr"/>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -6451,7 +6471,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr"/>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -6469,7 +6491,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D303" t="inlineStr"/>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -6487,7 +6511,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr"/>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -6505,7 +6531,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D305" t="inlineStr"/>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -6523,7 +6551,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D306" t="inlineStr"/>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -6541,7 +6571,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr"/>
+      <c r="D307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -6559,7 +6591,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr"/>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -6577,7 +6611,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D309" t="inlineStr"/>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -6595,7 +6631,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D310" t="inlineStr"/>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -6613,7 +6651,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr"/>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -6631,7 +6671,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr"/>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -6649,7 +6691,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D313" t="inlineStr"/>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -6667,7 +6711,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D314" t="inlineStr"/>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -6685,7 +6731,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr"/>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -6703,7 +6751,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr"/>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -6721,7 +6771,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr"/>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -6739,7 +6791,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr"/>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -6757,7 +6811,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D319" t="inlineStr"/>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -6775,7 +6831,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D320" t="inlineStr"/>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -6793,7 +6851,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr"/>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -6811,7 +6871,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D322" t="inlineStr"/>
+      <c r="D322" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -6829,7 +6891,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr"/>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -6847,7 +6911,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr"/>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -6865,7 +6931,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr"/>
+      <c r="D325" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -6883,7 +6951,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr"/>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -6901,7 +6971,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr"/>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -6919,7 +6991,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr"/>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -6937,7 +7011,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr"/>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -6955,7 +7031,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr"/>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -6973,7 +7051,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr"/>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -6991,7 +7071,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr"/>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -7009,7 +7091,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr"/>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -7027,7 +7111,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr"/>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7045,7 +7131,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr"/>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -7063,7 +7151,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr"/>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -7081,7 +7171,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr"/>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -7099,7 +7191,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr"/>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7117,7 +7211,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr"/>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7135,7 +7231,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr"/>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -7153,7 +7251,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr"/>
+      <c r="D341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -7171,7 +7271,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D342" t="inlineStr"/>
+      <c r="D342" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7189,7 +7291,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D343" t="inlineStr"/>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -7207,7 +7311,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr"/>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -7225,7 +7331,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr"/>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -7243,7 +7351,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D346" t="inlineStr"/>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -7261,7 +7371,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr"/>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -7279,7 +7391,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr"/>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -7297,7 +7411,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr"/>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -7315,7 +7431,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D350" t="inlineStr"/>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -7333,7 +7451,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr"/>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -7351,7 +7471,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr"/>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -7369,7 +7491,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D353" t="inlineStr"/>
+      <c r="D353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -7387,7 +7511,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D354" t="inlineStr"/>
+      <c r="D354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -7405,7 +7531,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr"/>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -7423,7 +7551,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr"/>
+      <c r="D356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -7441,7 +7571,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr"/>
+      <c r="D357" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -7459,7 +7591,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr"/>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -7477,7 +7611,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D359" t="inlineStr"/>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -7495,7 +7631,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr"/>
+      <c r="D360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -7513,7 +7651,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr"/>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -7531,7 +7671,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D362" t="inlineStr"/>
+      <c r="D362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -7549,7 +7691,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D363" t="inlineStr"/>
+      <c r="D363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -7567,7 +7711,9 @@
           <t>page5</t>
         </is>
       </c>
-      <c r="D364" t="inlineStr"/>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -7585,7 +7731,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D365" t="inlineStr"/>
+      <c r="D365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -7603,7 +7751,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D366" t="inlineStr"/>
+      <c r="D366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -7621,7 +7771,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D367" t="inlineStr"/>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -7639,7 +7791,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D368" t="inlineStr"/>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -7657,7 +7811,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D369" t="inlineStr"/>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -7675,7 +7831,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D370" t="inlineStr"/>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -7693,7 +7851,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D371" t="inlineStr"/>
+      <c r="D371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -7711,7 +7871,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D372" t="inlineStr"/>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -7729,7 +7891,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D373" t="inlineStr"/>
+      <c r="D373" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -7747,7 +7911,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D374" t="inlineStr"/>
+      <c r="D374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -7765,7 +7931,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D375" t="inlineStr"/>
+      <c r="D375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -7783,7 +7951,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D376" t="inlineStr"/>
+      <c r="D376" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -7801,7 +7971,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D377" t="inlineStr"/>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -7819,7 +7991,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D378" t="inlineStr"/>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -7837,7 +8011,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D379" t="inlineStr"/>
+      <c r="D379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -7855,7 +8031,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr"/>
+      <c r="D380" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -7873,7 +8051,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D381" t="inlineStr"/>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -7891,7 +8071,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D382" t="inlineStr"/>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -7909,7 +8091,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D383" t="inlineStr"/>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -7927,7 +8111,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D384" t="inlineStr"/>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -7945,7 +8131,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D385" t="inlineStr"/>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -7963,7 +8151,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D386" t="inlineStr"/>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -7981,7 +8171,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D387" t="inlineStr"/>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -7999,7 +8191,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D388" t="inlineStr"/>
+      <c r="D388" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -8017,7 +8211,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D389" t="inlineStr"/>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -8035,7 +8231,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D390" t="inlineStr"/>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -8053,7 +8251,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D391" t="inlineStr"/>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -8071,7 +8271,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D392" t="inlineStr"/>
+      <c r="D392" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -8089,7 +8291,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D393" t="inlineStr"/>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -8107,7 +8311,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D394" t="inlineStr"/>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -8125,7 +8331,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr"/>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -8143,7 +8351,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D396" t="inlineStr"/>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -8161,7 +8371,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D397" t="inlineStr"/>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -8179,7 +8391,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D398" t="inlineStr"/>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -8197,7 +8411,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D399" t="inlineStr"/>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -8215,7 +8431,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D400" t="inlineStr"/>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -8233,7 +8451,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D401" t="inlineStr"/>
+      <c r="D401" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -8251,7 +8471,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D402" t="inlineStr"/>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -8269,7 +8491,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D403" t="inlineStr"/>
+      <c r="D403" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -8287,7 +8511,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D404" t="inlineStr"/>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -8305,7 +8531,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D405" t="inlineStr"/>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -8323,7 +8551,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D406" t="inlineStr"/>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -8341,7 +8571,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D407" t="inlineStr"/>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -8359,7 +8591,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D408" t="inlineStr"/>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -8377,7 +8611,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D409" t="inlineStr"/>
+      <c r="D409" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -8395,7 +8631,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr"/>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -8413,7 +8651,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr"/>
+      <c r="D411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -8431,7 +8671,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr"/>
+      <c r="D412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -8449,7 +8691,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D413" t="inlineStr"/>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -8467,7 +8711,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D414" t="inlineStr"/>
+      <c r="D414" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -8485,7 +8731,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr"/>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -8503,7 +8751,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D416" t="inlineStr"/>
+      <c r="D416" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -8521,7 +8771,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D417" t="inlineStr"/>
+      <c r="D417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -8539,7 +8791,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr"/>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -8557,7 +8811,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D419" t="inlineStr"/>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -8575,7 +8831,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D420" t="inlineStr"/>
+      <c r="D420" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -8593,7 +8851,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D421" t="inlineStr"/>
+      <c r="D421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -8611,7 +8871,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D422" t="inlineStr"/>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -8629,7 +8891,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D423" t="inlineStr"/>
+      <c r="D423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -8647,7 +8911,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D424" t="inlineStr"/>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -8665,7 +8931,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D425" t="inlineStr"/>
+      <c r="D425" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -8683,7 +8951,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D426" t="inlineStr"/>
+      <c r="D426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -8701,7 +8971,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D427" t="inlineStr"/>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -8719,7 +8991,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D428" t="inlineStr"/>
+      <c r="D428" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -8737,7 +9011,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D429" t="inlineStr"/>
+      <c r="D429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -8755,7 +9031,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr"/>
+      <c r="D430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -8773,7 +9051,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D431" t="inlineStr"/>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -8791,7 +9071,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D432" t="inlineStr"/>
+      <c r="D432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -8809,7 +9091,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D433" t="inlineStr"/>
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -8827,7 +9111,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D434" t="inlineStr"/>
+      <c r="D434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -8845,7 +9131,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D435" t="inlineStr"/>
+      <c r="D435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -8863,7 +9151,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D436" t="inlineStr"/>
+      <c r="D436" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -8881,7 +9171,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D437" t="inlineStr"/>
+      <c r="D437" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -8899,7 +9191,9 @@
           <t>page6</t>
         </is>
       </c>
-      <c r="D438" t="inlineStr"/>
+      <c r="D438" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/영단어.xlsx
+++ b/학습자료/단답형/영단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D438"/>
+  <dimension ref="A1:D575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="200">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250">
@@ -5432,7 +5432,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255">
@@ -5532,7 +5532,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257">
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="269">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
@@ -5972,7 +5972,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278">
@@ -5992,7 +5992,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
@@ -6092,7 +6092,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294">
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -6512,7 +6512,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="310">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315">
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="317">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="322">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="333">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="338">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="341">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="369">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="370">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="374">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="378">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="379">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="382">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="384">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="387">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="396">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="399">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="407">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="417">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418">
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="420">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="430">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="433">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="435">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="436">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -9192,8 +9192,2470 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
-      </c>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>intervene</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>끼어들다, 간섭하다</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>recognize</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>인정하다</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>summarize</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>요약하다</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>eradicate</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>박멸[근절]하다</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>surrender</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>항복하다</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>degenerate</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>타락시키다</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>fascinate</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>매혹시키다</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>submerge</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>잠기다, 잠수하다</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>overwhelm</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>압도하다</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>accompany</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>동반하다</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>accumulate</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>축적하다</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>humiliate</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>굴욕감을 주다</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>originate</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>기원하다</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>reproach</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>비난하다</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>represent</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>묘사하다, 상징하다, 대표하다</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>emancipate</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>해방시키다</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>recollect</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>회상하다</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>subscribe</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>구독하다</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>concentrate</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>집중하다</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>advocate</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>옹호하다</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>evaporate</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>증발하다</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>recommend</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>추천하다</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>reconcile</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>화해하다, 조화시키다</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>undertake</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>떠맡다</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>compensate</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>보상하다</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>penetrate</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>꿰뚫다, 침투하다</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>substitute</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>대신하다</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>compromise</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>타협</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>outweigh</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>~보다 무겁다</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>persevere</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>참다, 인내하다</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>domesticate</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>길 길들이다</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>tame</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>v.길들이다 a.길든</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>construct</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>건설하다</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>appreciate 감사하다, 감상하다</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>진가를 인정하다</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>demonstrate</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>입증하다</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>encounter</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>우연히 만나다</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>embarrass</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>당황하게 하다</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>comprehend</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>이해하다</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>anticipate</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>예상하다</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>participate</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>참가하다</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>contemplate 심사숙고하다</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>constitute</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>구성하다</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>determine</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>결심하다</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>distinguish</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>구별하다</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>stimulate</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>자극하다</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>manufacture</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>제조하다</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>impel</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>재촉하다, 추진하다</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>extinguish</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>끄다</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>assimilate</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>동화하다, 흡수하다</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>manifest</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>a.명백한 v.명백히 하다</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>exact</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>a.정확한, 꼼꼼한 v.요구하다, 강요하다</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>추천서, 언급, 참고</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>exalt</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>높이다, 고양하다</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>preclude</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>미리 배제하다</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>synthesize</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>통합[합성]하다</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>defile</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>더럽히다</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>admonish</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>훈계하다</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>clone</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>복제하다</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>intimidate</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>겁주다, 협박하다</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>enlighten</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>계몽[교화]하다</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>교환하다</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>transcend</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>초월[능가]하다</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>adjoin</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>인접하다</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>demote</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>강등시키다</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>impart</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>나눠주다</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>relinquish</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>양도하다</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>mitigate</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>완화시키다</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>infuriate</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>격분시키다</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>ignite</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>점화하다</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>뒤쫓다</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>deplete</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>고갈시키다</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>override</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>유린하다, 짓밟다</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>page7</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>acquiesce</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>묵인하다</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>suffocate</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>질식시키다</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>compile</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>편집하다</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>entreat</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>간청하다</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>fudge</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>날조하다, 속이다</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>integrate</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>통합하다</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>abide</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>지속하다, 머물다</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>dismay</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>실망시키다</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>articulate</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>명확히 표현된</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>isolate</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>분리하다</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>stunt</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>발육을 저지하다</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>coin</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>신조어를 만들어내다</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>sort</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>n.종류 v.분류하다</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>adjust</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>조절하다, 맞추다</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>가공하다, 처리하다</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>squeeze</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>압축하다, 짜내다</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>convert</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>변하게 하다, 개종시키다</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>decay</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>썩다, 부패하다, 부식하다</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>burgeon</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>싹트다</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>elude</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>교묘히 피하다</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>debunk</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>폭로하다, 가면을 벗기다</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>hamper</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>방해하다</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>consolidate</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>결합하다, 강화하다, 통합하다</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>paralyze</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>마비시키다, 무력하게 만들다</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>foster</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>기르다, 양육하다, 증진[촉진]시키다</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>prod</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>찌르다, 자극하다, 불러일으키다</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>adore</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>숭배하다, 존경하다</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>quote</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>인용하다</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>condense</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>요약하다</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>publicize</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>광고[홍보]하다</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>gear</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>에 맞게 하다, 조정하다</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>attenuate</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>약화시키다</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>wage</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>수행하다</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>engender</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>일으키다</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>strangle</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>질식 시키다</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>launch</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>진수시키다, 시작[착수]하다</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>visualize</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>맘속으로 상상하다, 영상화하다</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>deteriorate</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>악화시키다</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>herald</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>n.선구자, 통보자, v.알리다, 전달하다</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>inebriate</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>취하게 하다</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>disdain</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>경멸하다</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>eviscerate</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>골자를 빼버리다</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>defraud</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>속이다</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>dramatize</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>각색하다, 극본화하다</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>blunder</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>큰 실수를 하다</t>
+        </is>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>allude</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>언급하다</t>
+        </is>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>vegetate</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>증식하다, 무성하게 나다</t>
+        </is>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>venerate</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>존경하다</t>
+        </is>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>grudge</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>싫어하다, 꺼리다</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>repulse</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>격퇴하다</t>
+        </is>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>exploit</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>개척하다, 착취하다</t>
+        </is>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>pamper</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>제멋대로 행동하다,  소중히 여기다</t>
+        </is>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>defy</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>도전하다, 문제 삼지 않다 , 반항하다</t>
+        </is>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>outstrip</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>추월하다</t>
+        </is>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>n.거리 v.멀리하다</t>
+        </is>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>surmount</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>오르다, 극복하다</t>
+        </is>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>sanction</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>n.재가, 인가, v.허가[재가]하다</t>
+        </is>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>consecrate</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>성스럽게 하다</t>
+        </is>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>stagnate</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>썩다, 침체하다</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>extensive</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>광대한, 확장의</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>intensive</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>강한, 집중적인</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>sensual</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>관능적인, 육감적인</t>
+        </is>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>rare</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>드문, 귀한</t>
+        </is>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>pale</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>창백한, 연한</t>
+        </is>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>ripe</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>익은, 원숙한</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>page8</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/영단어.xlsx
+++ b/학습자료/단답형/영단어.xlsx
@@ -9211,7 +9211,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D439" t="inlineStr"/>
+      <c r="D439" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -9229,7 +9231,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D440" t="inlineStr"/>
+      <c r="D440" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -9247,7 +9251,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D441" t="inlineStr"/>
+      <c r="D441" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -9265,7 +9271,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D442" t="inlineStr"/>
+      <c r="D442" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -9283,7 +9291,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D443" t="inlineStr"/>
+      <c r="D443" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -9301,7 +9311,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D444" t="inlineStr"/>
+      <c r="D444" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -9319,7 +9331,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D445" t="inlineStr"/>
+      <c r="D445" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -9337,7 +9351,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D446" t="inlineStr"/>
+      <c r="D446" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -9355,7 +9371,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D447" t="inlineStr"/>
+      <c r="D447" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -9373,7 +9391,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D448" t="inlineStr"/>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -9391,7 +9411,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D449" t="inlineStr"/>
+      <c r="D449" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -9409,7 +9431,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D450" t="inlineStr"/>
+      <c r="D450" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -9427,7 +9451,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D451" t="inlineStr"/>
+      <c r="D451" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -9445,7 +9471,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D452" t="inlineStr"/>
+      <c r="D452" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -9463,7 +9491,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D453" t="inlineStr"/>
+      <c r="D453" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -9481,7 +9511,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D454" t="inlineStr"/>
+      <c r="D454" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -9499,7 +9531,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D455" t="inlineStr"/>
+      <c r="D455" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -9517,7 +9551,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D456" t="inlineStr"/>
+      <c r="D456" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -9535,7 +9571,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D457" t="inlineStr"/>
+      <c r="D457" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -9553,7 +9591,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D458" t="inlineStr"/>
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -9571,7 +9611,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D459" t="inlineStr"/>
+      <c r="D459" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -9589,7 +9631,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D460" t="inlineStr"/>
+      <c r="D460" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -9607,7 +9651,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D461" t="inlineStr"/>
+      <c r="D461" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -9625,7 +9671,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D462" t="inlineStr"/>
+      <c r="D462" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -9643,7 +9691,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D463" t="inlineStr"/>
+      <c r="D463" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -9661,7 +9711,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D464" t="inlineStr"/>
+      <c r="D464" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -9679,7 +9731,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D465" t="inlineStr"/>
+      <c r="D465" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -9697,7 +9751,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D466" t="inlineStr"/>
+      <c r="D466" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -9715,7 +9771,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D467" t="inlineStr"/>
+      <c r="D467" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -9733,7 +9791,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D468" t="inlineStr"/>
+      <c r="D468" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -9751,7 +9811,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D469" t="inlineStr"/>
+      <c r="D469" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -9769,7 +9831,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D470" t="inlineStr"/>
+      <c r="D470" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -9787,7 +9851,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D471" t="inlineStr"/>
+      <c r="D471" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -9805,7 +9871,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D472" t="inlineStr"/>
+      <c r="D472" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -9823,7 +9891,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D473" t="inlineStr"/>
+      <c r="D473" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -9841,7 +9911,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D474" t="inlineStr"/>
+      <c r="D474" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -9859,7 +9931,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D475" t="inlineStr"/>
+      <c r="D475" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -9877,7 +9951,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D476" t="inlineStr"/>
+      <c r="D476" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -9895,7 +9971,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D477" t="inlineStr"/>
+      <c r="D477" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -9913,7 +9991,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D478" t="inlineStr"/>
+      <c r="D478" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -9927,7 +10007,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D479" t="inlineStr"/>
+      <c r="D479" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -9945,7 +10027,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D480" t="inlineStr"/>
+      <c r="D480" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -9963,7 +10047,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D481" t="inlineStr"/>
+      <c r="D481" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -9981,7 +10067,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D482" t="inlineStr"/>
+      <c r="D482" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -9999,7 +10087,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D483" t="inlineStr"/>
+      <c r="D483" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -10017,7 +10107,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D484" t="inlineStr"/>
+      <c r="D484" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -10035,7 +10127,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D485" t="inlineStr"/>
+      <c r="D485" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -10053,7 +10147,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D486" t="inlineStr"/>
+      <c r="D486" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -10071,7 +10167,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D487" t="inlineStr"/>
+      <c r="D487" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -10089,7 +10187,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D488" t="inlineStr"/>
+      <c r="D488" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -10107,7 +10207,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D489" t="inlineStr"/>
+      <c r="D489" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -10125,7 +10227,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D490" t="inlineStr"/>
+      <c r="D490" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -10143,7 +10247,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D491" t="inlineStr"/>
+      <c r="D491" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -10161,7 +10267,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D492" t="inlineStr"/>
+      <c r="D492" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -10179,7 +10287,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D493" t="inlineStr"/>
+      <c r="D493" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -10197,7 +10307,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D494" t="inlineStr"/>
+      <c r="D494" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -10215,7 +10327,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D495" t="inlineStr"/>
+      <c r="D495" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -10233,7 +10347,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D496" t="inlineStr"/>
+      <c r="D496" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -10251,7 +10367,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D497" t="inlineStr"/>
+      <c r="D497" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -10269,7 +10387,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D498" t="inlineStr"/>
+      <c r="D498" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -10287,7 +10407,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D499" t="inlineStr"/>
+      <c r="D499" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -10305,7 +10427,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D500" t="inlineStr"/>
+      <c r="D500" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -10323,7 +10447,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D501" t="inlineStr"/>
+      <c r="D501" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -10341,7 +10467,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D502" t="inlineStr"/>
+      <c r="D502" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -10359,7 +10487,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D503" t="inlineStr"/>
+      <c r="D503" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -10377,7 +10507,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D504" t="inlineStr"/>
+      <c r="D504" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -10395,7 +10527,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D505" t="inlineStr"/>
+      <c r="D505" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -10413,7 +10547,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D506" t="inlineStr"/>
+      <c r="D506" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -10431,7 +10567,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D507" t="inlineStr"/>
+      <c r="D507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -10449,7 +10587,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D508" t="inlineStr"/>
+      <c r="D508" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -10467,7 +10607,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D509" t="inlineStr"/>
+      <c r="D509" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -10485,7 +10627,9 @@
           <t>page7</t>
         </is>
       </c>
-      <c r="D510" t="inlineStr"/>
+      <c r="D510" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -10503,7 +10647,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D511" t="inlineStr"/>
+      <c r="D511" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -10521,7 +10667,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D512" t="inlineStr"/>
+      <c r="D512" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -10539,7 +10687,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D513" t="inlineStr"/>
+      <c r="D513" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -10557,7 +10707,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D514" t="inlineStr"/>
+      <c r="D514" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -10575,7 +10727,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D515" t="inlineStr"/>
+      <c r="D515" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -10593,7 +10747,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D516" t="inlineStr"/>
+      <c r="D516" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -10611,7 +10767,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D517" t="inlineStr"/>
+      <c r="D517" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -10629,7 +10787,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D518" t="inlineStr"/>
+      <c r="D518" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -10647,7 +10807,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D519" t="inlineStr"/>
+      <c r="D519" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -10665,7 +10827,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D520" t="inlineStr"/>
+      <c r="D520" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -10683,7 +10847,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D521" t="inlineStr"/>
+      <c r="D521" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -10701,7 +10867,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D522" t="inlineStr"/>
+      <c r="D522" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -10719,7 +10887,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D523" t="inlineStr"/>
+      <c r="D523" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -10737,7 +10907,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D524" t="inlineStr"/>
+      <c r="D524" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -10755,7 +10927,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D525" t="inlineStr"/>
+      <c r="D525" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -10773,7 +10947,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D526" t="inlineStr"/>
+      <c r="D526" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -10791,7 +10967,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D527" t="inlineStr"/>
+      <c r="D527" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -10809,7 +10987,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D528" t="inlineStr"/>
+      <c r="D528" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -10827,7 +11007,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D529" t="inlineStr"/>
+      <c r="D529" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -10845,7 +11027,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D530" t="inlineStr"/>
+      <c r="D530" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -10863,7 +11047,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D531" t="inlineStr"/>
+      <c r="D531" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -10881,7 +11067,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D532" t="inlineStr"/>
+      <c r="D532" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -10899,7 +11087,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D533" t="inlineStr"/>
+      <c r="D533" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -10917,7 +11107,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D534" t="inlineStr"/>
+      <c r="D534" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -10935,7 +11127,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D535" t="inlineStr"/>
+      <c r="D535" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -10953,7 +11147,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D536" t="inlineStr"/>
+      <c r="D536" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -10971,7 +11167,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D537" t="inlineStr"/>
+      <c r="D537" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -10989,7 +11187,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D538" t="inlineStr"/>
+      <c r="D538" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -11007,7 +11207,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D539" t="inlineStr"/>
+      <c r="D539" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -11025,7 +11227,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D540" t="inlineStr"/>
+      <c r="D540" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -11043,7 +11247,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D541" t="inlineStr"/>
+      <c r="D541" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -11061,7 +11267,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D542" t="inlineStr"/>
+      <c r="D542" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -11079,7 +11287,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D543" t="inlineStr"/>
+      <c r="D543" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -11097,7 +11307,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D544" t="inlineStr"/>
+      <c r="D544" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -11115,7 +11327,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D545" t="inlineStr"/>
+      <c r="D545" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -11133,7 +11347,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D546" t="inlineStr"/>
+      <c r="D546" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -11151,7 +11367,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D547" t="inlineStr"/>
+      <c r="D547" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -11169,7 +11387,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D548" t="inlineStr"/>
+      <c r="D548" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -11187,7 +11407,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D549" t="inlineStr"/>
+      <c r="D549" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -11205,7 +11427,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D550" t="inlineStr"/>
+      <c r="D550" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -11223,7 +11447,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D551" t="inlineStr"/>
+      <c r="D551" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -11241,7 +11467,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D552" t="inlineStr"/>
+      <c r="D552" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -11259,7 +11487,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D553" t="inlineStr"/>
+      <c r="D553" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -11277,7 +11507,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -11295,7 +11527,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D555" t="inlineStr"/>
+      <c r="D555" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -11313,7 +11547,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D556" t="inlineStr"/>
+      <c r="D556" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -11331,7 +11567,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D557" t="inlineStr"/>
+      <c r="D557" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -11349,7 +11587,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D558" t="inlineStr"/>
+      <c r="D558" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -11367,7 +11607,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D559" t="inlineStr"/>
+      <c r="D559" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -11385,7 +11627,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D560" t="inlineStr"/>
+      <c r="D560" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -11403,7 +11647,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D561" t="inlineStr"/>
+      <c r="D561" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -11421,7 +11667,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D562" t="inlineStr"/>
+      <c r="D562" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -11439,7 +11687,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D563" t="inlineStr"/>
+      <c r="D563" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -11457,7 +11707,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D564" t="inlineStr"/>
+      <c r="D564" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -11475,7 +11727,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D565" t="inlineStr"/>
+      <c r="D565" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -11493,7 +11747,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D566" t="inlineStr"/>
+      <c r="D566" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -11511,7 +11767,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D567" t="inlineStr"/>
+      <c r="D567" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -11529,7 +11787,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D568" t="inlineStr"/>
+      <c r="D568" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -11547,7 +11807,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D569" t="inlineStr"/>
+      <c r="D569" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -11565,7 +11827,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D570" t="inlineStr"/>
+      <c r="D570" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -11583,7 +11847,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D571" t="inlineStr"/>
+      <c r="D571" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -11601,7 +11867,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D572" t="inlineStr"/>
+      <c r="D572" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -11619,7 +11887,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D573" t="inlineStr"/>
+      <c r="D573" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -11637,7 +11907,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D574" t="inlineStr"/>
+      <c r="D574" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -11655,7 +11927,9 @@
           <t>page8</t>
         </is>
       </c>
-      <c r="D575" t="inlineStr"/>
+      <c r="D575" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/영단어.xlsx
+++ b/학습자료/단답형/영단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D595"/>
+  <dimension ref="A1:D587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>악화시키다, 심화시키다</t>
+          <t>악화시키다, 심화시키다, 약화시키다</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -4463,7 +4463,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>깔보다, 얕잡아보다, 비방하다</t>
+          <t>깔보다, 얕잡아보다, 비방하다, 비난하다</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4478,27 +4478,27 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>appease</t>
+          <t>disciplinary</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>달래다</t>
+          <t>징계의, 규율의</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>disciplinary</t>
+          <t>penal</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4518,12 +4518,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>penal</t>
+          <t>ad-hoc</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>징계의, 규율의</t>
+          <t>즉석의, 임시의</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -4532,18 +4532,18 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ad-hoc</t>
+          <t>pretrial</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>즉석의, 임시의</t>
+          <t>공판 전의</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4558,17 +4558,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>pretrial</t>
+          <t>체면, 예절</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>공판 전의</t>
+          <t>decency</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>de</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4578,12 +4578,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>체면, 예절</t>
+          <t>방해물, 제지</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>decency</t>
+          <t>deterrent</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4598,12 +4598,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>방해물, 제지</t>
+          <t>연약함, 섬세함</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>deterrent</t>
+          <t>delicacy</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4612,18 +4612,18 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>연약함, 섬세함</t>
+          <t>일탈, 일선</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>delicacy</t>
+          <t>deviation</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -4638,32 +4638,32 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>일탈, 일선</t>
+          <t>자백</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>deviation</t>
+          <t>confession</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>de</t>
+          <t>con</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>자백</t>
+          <t>감금</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>confession</t>
+          <t>confinement</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4678,12 +4678,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>감금</t>
+          <t>순응</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>confinement</t>
+          <t>conformity</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4692,18 +4692,18 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>순응</t>
+          <t>논박, 논증</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>conformity</t>
+          <t>confutation</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -4712,23 +4712,23 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>논박, 논증</t>
+          <t>venal</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>confutation</t>
+          <t>타락한</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>con</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4738,12 +4738,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>venal</t>
+          <t>laudable</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>타락한</t>
+          <t>칭찬할 만한</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4752,18 +4752,18 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>laudable</t>
+          <t>imprudent</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>칭찬할 만한</t>
+          <t>경솔한</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4778,12 +4778,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>imprudent</t>
+          <t>despicable</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>경솔한</t>
+          <t>비열한, 야비한</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4798,12 +4798,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>despicable</t>
+          <t>corruptible</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>비열한, 야비한</t>
+          <t>부패하기 쉬운</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4812,18 +4812,18 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>corruptible</t>
+          <t>blasphemous</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>부패하기 쉬운</t>
+          <t>불경한</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4838,37 +4838,37 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>blasphemous</t>
+          <t>make light of</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>불경한</t>
+          <t>~을 가볍게 여기다, 경시하다</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>make light of</t>
+          <t>canny</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>~을 가볍게 여기다, 경시하다</t>
+          <t>영리한</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -4878,7 +4878,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>canny</t>
+          <t>shrewd</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4892,18 +4892,18 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>shrewd</t>
+          <t>prestigious</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>영리한</t>
+          <t>명성 있는, 유명한</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4912,18 +4912,18 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>prestigious</t>
+          <t>impudent</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>명성 있는, 유명한</t>
+          <t>뻔뻔스러운, 철면피의</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4938,17 +4938,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>impudent</t>
+          <t>paucity</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>뻔뻔스러운, 철면피의</t>
+          <t>결핍</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -4958,32 +4958,32 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>paucity</t>
+          <t>predatory</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>결핍</t>
+          <t>약탈의</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>predatory</t>
+          <t>dormant</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>약탈의</t>
+          <t>잠자는</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4992,58 +4992,58 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>dormant</t>
+          <t>pitfall</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>잠자는</t>
+          <t>위험</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>pitfall</t>
+          <t>unabashed</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>위험</t>
+          <t>대담한</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>unabashed</t>
+          <t>unprincipled</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>대담한</t>
+          <t>부도덕한</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5058,12 +5058,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>unprincipled</t>
+          <t>misanthropic</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>부도덕한</t>
+          <t>사람을 싫어하는</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5072,18 +5072,18 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>misanthropic</t>
+          <t>contingent</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>사람을 싫어하는</t>
+          <t>우발적인</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5092,18 +5092,18 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>contingent</t>
+          <t>omnivorous</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>우발적인</t>
+          <t>잡식성의</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5112,23 +5112,23 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>omnivorous</t>
+          <t>compromise</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>잡식성의</t>
+          <t>위태롭게 하다, 손상시키다, 협상(타협)하다</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -5138,12 +5138,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>compromise</t>
+          <t>work up</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>위태롭게 하다, 손상시키다, 협상(타협)하다</t>
+          <t>북돋우다, 불러일으키다</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -5152,18 +5152,18 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>work up</t>
+          <t>annihilate</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>북돋우다, 불러일으키다</t>
+          <t>전멸시키다</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5172,18 +5172,18 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>annihilate</t>
+          <t>gratify</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>전멸시키다</t>
+          <t>기쁘게하다, 만족시키다</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5198,12 +5198,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>gratify</t>
+          <t>whet</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>기쁘게하다, 만족시키다</t>
+          <t>(칼 등을) 갈다, (식욕 등을) 자극하다, 돋우다</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5218,32 +5218,32 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>whet</t>
+          <t>sterile</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>(칼 등을) 갈다, (식욕 등을) 자극하다, 돋우다</t>
+          <t>불모의</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>sterile</t>
+          <t>futile</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>불모의</t>
+          <t>무익한</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5252,18 +5252,18 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>futile</t>
+          <t>volatile</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>무익한</t>
+          <t>변하기 쉬운</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5278,12 +5278,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>volatile</t>
+          <t>felicitous</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>변하기 쉬운</t>
+          <t>절묘한</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5292,18 +5292,18 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>felicitous</t>
+          <t>unscrupulous</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>절묘한</t>
+          <t>부도덕한</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5312,18 +5312,18 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>unscrupulous</t>
+          <t>delicate</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>부도덕한</t>
+          <t>섬세한</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -5332,18 +5332,18 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>delicate</t>
+          <t>delecatable</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>섬세한</t>
+          <t>유쾌한</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5358,12 +5358,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>delecatable</t>
+          <t>insolent</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>유쾌한</t>
+          <t>무례한</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -5378,12 +5378,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>insolent</t>
+          <t>tractable</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>무례한</t>
+          <t>유순한</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5398,37 +5398,37 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>tractable</t>
+          <t>put up with</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>유순한</t>
+          <t>참다, 견디다</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>put up with</t>
+          <t>인계받다</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>참다, 견디다</t>
+          <t>take over</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>take</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -5438,12 +5438,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>인계받다</t>
+          <t>(일을) 맡다</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>take over</t>
+          <t>take on</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -5452,18 +5452,18 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>(일을) 맡다</t>
+          <t>이륙하다</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>take on</t>
+          <t>take off</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -5472,18 +5472,18 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>이륙하다</t>
+          <t>닮다</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>take off</t>
+          <t>take after</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -5498,12 +5498,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>닮다</t>
+          <t>돌보다</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>take after</t>
+          <t>take care of</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5518,32 +5518,32 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>돌보다</t>
+          <t>servile</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>take care of</t>
+          <t>굽실거리는</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>take</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>servile</t>
+          <t>officious</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>굽실거리는</t>
+          <t>참견하는</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -5552,38 +5552,38 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>officious</t>
+          <t>harness</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>참견하는</t>
+          <t>이용하다</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>harness</t>
+          <t>avert</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>이용하다</t>
+          <t>~에서 돌리다, 외면하다</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -5598,12 +5598,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>avert</t>
+          <t>muffle</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>~에서 돌리다, 외면하다</t>
+          <t>억압하다</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5612,18 +5612,18 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>muffle</t>
+          <t>evoke</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>억압하다</t>
+          <t>자아내다</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -5632,38 +5632,38 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>evoke</t>
+          <t>predecessor</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>자아내다</t>
+          <t>전임자</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>predecessor</t>
+          <t>plunderer</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>전임자</t>
+          <t>약탈자</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -5672,23 +5672,23 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>plunderer</t>
+          <t>palatable</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>약탈자</t>
+          <t>맛있는</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -5698,12 +5698,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>palatable</t>
+          <t>dissolvable</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>맛있는</t>
+          <t>분해할 수 있는</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -5712,18 +5712,18 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>dissolvable</t>
+          <t>potable</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>분해할 수 있는</t>
+          <t>마셔도 되는</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -5738,12 +5738,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>potable</t>
+          <t>peculiar</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>마셔도 되는</t>
+          <t>이상한</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5752,33 +5752,33 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>peculiar</t>
+          <t>ostentatiously</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>이상한</t>
+          <t>보란 듯이</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ostentatiously</t>
+          <t>boastfully</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5798,12 +5798,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>boastfully</t>
+          <t>plainly</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>보란 듯이</t>
+          <t>있는 그대로, 숨김없이</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5812,18 +5812,18 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>plainly</t>
+          <t>loud and clear</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>있는 그대로, 숨김없이</t>
+          <t>분명하게, 이해하기 쉽게</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5832,63 +5832,63 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>loud and clear</t>
+          <t>manipulate</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>분명하게, 이해하기 쉽게</t>
+          <t>조작하다, 다루다, 처리하다</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>manipulate</t>
+          <t>consciously</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>조작하다, 다루다, 처리하다</t>
+          <t>의식적으로</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>consciously</t>
+          <t>promulgate</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>의식적으로</t>
+          <t>반포(공포)하다, 널리 알리다</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -5898,32 +5898,32 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>promulgate</t>
+          <t>flattering</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>반포(공포)하다, 널리 알리다</t>
+          <t>아첨하는</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>flattering</t>
+          <t>intractable</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>아첨하는</t>
+          <t>다루기 힘든, 말을 듣지 않는, 고집센</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5938,12 +5938,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>intractable</t>
+          <t>suspicious</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>다루기 힘든, 말을 듣지 않는, 고집센</t>
+          <t>의심스러운, 수상쩍은</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5958,12 +5958,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>suspicious</t>
+          <t>consecutive</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>의심스러운, 수상쩍은</t>
+          <t>연속적인</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5972,23 +5972,23 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>consecutive</t>
+          <t>falsify</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>연속적인</t>
+          <t>위조하다</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -5998,32 +5998,32 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>falsify</t>
+          <t>보복하다</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>위조하다</t>
+          <t>retaliate</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>re</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>보복하다</t>
+          <t>주고받다, 보답하다</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>retaliate</t>
+          <t>reciprocate</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -6038,12 +6038,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>주고받다, 보답하다</t>
+          <t>폐지하다, 철회하다</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>reciprocate</t>
+          <t>repeal</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6052,18 +6052,18 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>폐지하다, 철회하다</t>
+          <t>요점을 되풀이하며 말하다, 개괄하다</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>repeal</t>
+          <t>recapitulate</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6072,18 +6072,18 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>요점을 되풀이하며 말하다, 개괄하다</t>
+          <t>거부하다, 부인하다</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>recapitulate</t>
+          <t>repdiate</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -6092,23 +6092,23 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>거부하다, 부인하다</t>
+          <t>proliferation</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>repdiate</t>
+          <t>확산</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>re</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -6118,12 +6118,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>proliferation</t>
+          <t>perspiration</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>확산</t>
+          <t>땀</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -6132,18 +6132,18 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>perspiration</t>
+          <t>perpetuation</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>땀</t>
+          <t>영구화</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6152,18 +6152,18 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>perpetuation</t>
+          <t>proximation</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>영구화</t>
+          <t>가장 가까이 함</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6172,38 +6172,38 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>proximation</t>
+          <t>cordial</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>가장 가까이 함</t>
+          <t>다정한</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>cordial</t>
+          <t>sullen</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>다정한</t>
+          <t>침울한</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6218,7 +6218,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>sullen</t>
+          <t>morose</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6232,18 +6232,18 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>morose</t>
+          <t>naughty</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>침울한</t>
+          <t>장난꾸러기의</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -6252,18 +6252,18 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>naughty</t>
+          <t>mirthful</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>장난꾸러기의</t>
+          <t>명량한</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -6272,18 +6272,18 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>mirthful</t>
+          <t>indigenous</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>명량한</t>
+          <t>토착의</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -6292,13 +6292,13 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>indigenous</t>
+          <t>native</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -6312,18 +6312,18 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>native</t>
+          <t>ravenous</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>토착의</t>
+          <t>탐욕스러운</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -6332,18 +6332,18 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ravenous</t>
+          <t>impoverished</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>탐욕스러운</t>
+          <t>가난한</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -6358,12 +6358,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>impoverished</t>
+          <t>itineant</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>가난한</t>
+          <t>떠돌아다니는</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -6372,38 +6372,38 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>itineant</t>
+          <t>dilettante</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>떠돌아다니는</t>
+          <t>호사가| 일을 벌이기를 좋아하는 사람</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>dilettante</t>
+          <t>malefactor</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>호사가| 일을 벌이기를 좋아하는 사람</t>
+          <t>범인, 악인, 악한</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -6412,18 +6412,18 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>malefactor</t>
+          <t>pariah</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>범인, 악인, 악한</t>
+          <t>부랑자</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -6432,18 +6432,18 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>pariah</t>
+          <t>demagogue</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>부랑자</t>
+          <t>선동가</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -6458,17 +6458,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>demagogue</t>
+          <t>through thick and thin</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>선동가</t>
+          <t>좋을 때나 안 좋을 때나, 어떤 고난이 있어도</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -6478,17 +6478,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>through thick and thin</t>
+          <t>quintessentil</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>좋을 때나 안 좋을 때나, 어떤 고난이 있어도</t>
+          <t>전형적인</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -6498,12 +6498,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>quintessentil</t>
+          <t>destitute</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>전형적인</t>
+          <t>빈곤한</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -6518,12 +6518,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>destitute</t>
+          <t>devout</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>빈곤한</t>
+          <t>독실한</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -6532,18 +6532,18 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>devout</t>
+          <t>meticulous</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>독실한</t>
+          <t>지나치게 세심한</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>meticulous</t>
+          <t>deleterious</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>지나치게 세심한</t>
+          <t>해로운</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -6578,12 +6578,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>deleterious</t>
+          <t>impoverished</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>해로운</t>
+          <t>가난해진</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -6598,17 +6598,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>impoverished</t>
+          <t>attenuate</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>가난해진</t>
+          <t>약화시키다</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -6618,12 +6618,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>attenuate</t>
+          <t>manacle</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>약화시키다</t>
+          <t>수갑(족쇄)을 채우다</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -6638,12 +6638,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>manacle</t>
+          <t>incapacitate</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>수갑(족쇄)을 채우다</t>
+          <t>정상적인 생활을 하지 못하게 만들다</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6652,38 +6652,38 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>incapacitate</t>
+          <t>inclusive</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>정상적인 생활을 하지 못하게 만들다</t>
+          <t>포괄적인</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>inclusive</t>
+          <t>intimate</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>포괄적인</t>
+          <t>사적인</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -6692,38 +6692,38 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>intimate</t>
+          <t>deain</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>사적인</t>
+          <t>구금하다</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>deain</t>
+          <t>epitomize</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>구금하다</t>
+          <t>집약적(전형적)으로 보여주다, 요약하다</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -6732,18 +6732,18 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>epitomize</t>
+          <t>dub</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>집약적(전형적)으로 보여주다, 요약하다</t>
+          <t>~라고 칭하다, 이름을 붙이다</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6758,37 +6758,37 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>dub</t>
+          <t>derisive</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>~라고 칭하다, 이름을 붙이다</t>
+          <t>조롱하는</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>derisive</t>
+          <t>seemingly</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>조롱하는</t>
+          <t>외관상, 겉보기에</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -6798,32 +6798,32 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>seemingly</t>
+          <t>rescind</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>외관상, 겉보기에</t>
+          <t>무효로 하다, 폐지하다</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>rescind</t>
+          <t>refurbish</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>무효로 하다, 폐지하다</t>
+          <t>재단장하다, 개조하다</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6838,12 +6838,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>refurbish</t>
+          <t>reimburse</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>재단장하다, 개조하다</t>
+          <t>변상하다, 상환하다</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -6858,17 +6858,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>reimburse</t>
+          <t>senator</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>변상하다, 상환하다</t>
+          <t>상원의원</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -6878,17 +6878,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>disparage</t>
+          <t>gimmick</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>비난하다</t>
+          <t>속임수, 눈속임, 트릭</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -6898,57 +6898,57 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>senator</t>
+          <t>belittle</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>상원의원</t>
+          <t>경시하다, 폄하하다</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>gimmick</t>
+          <t>slight</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>속임수, 눈속임, 트릭</t>
+          <t>경멸하다, 얕보다</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>belittle</t>
+          <t>dignitary</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>경시하다, 폄하하다</t>
+          <t>정부 고관</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D326" t="n">
@@ -6958,52 +6958,52 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>slight</t>
+          <t>aide</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>경멸하다, 얕보다</t>
+          <t>측근, 보좌관</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>dignitary</t>
+          <t>an array of</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>정부 고관</t>
+          <t>다수의</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>aide</t>
+          <t>conglomerate</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>측근, 보좌관</t>
+          <t>집단, 복합체, 복합 기업</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7018,32 +7018,32 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>an array of</t>
+          <t>profession</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>다수의</t>
+          <t>직업</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>conglomerate</t>
+          <t>loophole</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>집단, 복합체, 복합 기업</t>
+          <t>허점, 빠져나갈 구멍</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -7052,23 +7052,23 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>profession</t>
+          <t>fuzzy</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>직업</t>
+          <t>희미한, 분명치 않은</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D332" t="n">
@@ -7078,12 +7078,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>loophole</t>
+          <t>bribery</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>허점, 빠져나갈 구멍</t>
+          <t>뇌물, 뇌물 수수</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -7092,23 +7092,23 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>fuzzy</t>
+          <t>mere</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>희미한, 분명치 않은</t>
+          <t>단순한, 단지</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -7118,12 +7118,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>bribery</t>
+          <t>generosity</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>뇌물, 뇌물 수수</t>
+          <t>아량, 관대함</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7132,38 +7132,38 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>mere</t>
+          <t>finance</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>단순한, 단지</t>
+          <t>자금을 공급하다</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>generosity</t>
+          <t>private fortune</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>아량, 관대함</t>
+          <t>사재, 개인 재산</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7172,18 +7172,18 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>finance</t>
+          <t>condone</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>자금을 공급하다</t>
+          <t>용서하다</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7198,32 +7198,32 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>private fortune</t>
+          <t>connive</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>사재, 개인 재산</t>
+          <t>묵인하다, 눈감아주다</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>condone</t>
+          <t>fixate</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>용서하다</t>
+          <t>응시하다, 집착하다 | 고정하다</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7238,17 +7238,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>connive</t>
+          <t>viscerally</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>묵인하다, 눈감아주다</t>
+          <t>내장에서, 본능적으로</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D341" t="n">
@@ -7258,72 +7258,72 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>fixate</t>
+          <t>unflinchingly</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>응시하다, 집착하다 | 고정하다</t>
+          <t>굴하지(움츠리지) 않고</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>viscerally</t>
+          <t>denigration</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>내장에서, 본능적으로</t>
+          <t>더럽힘, 명예훼손, 폄하</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>unflinchingly</t>
+          <t>impugnment</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>굴하지(움츠리지) 않고</t>
+          <t>비난, 공격</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>denigration</t>
+          <t>prominence</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>더럽힘, 명예훼손, 폄하</t>
+          <t>걸출, 탁월, 현저, 명성</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -7332,23 +7332,23 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>impugnment</t>
+          <t>languish</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>비난, 공격</t>
+          <t>쇠약해지다, 활기를 잃다</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D346" t="n">
@@ -7358,17 +7358,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>prominence</t>
+          <t>in the wake of</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>걸출, 탁월, 현저, 명성</t>
+          <t>~에 뒤이어, ~의 결과로서</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D347" t="n">
@@ -7378,52 +7378,52 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>languish</t>
+          <t>critique</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>쇠약해지다, 활기를 잃다</t>
+          <t>비평, 비판</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>in the wake of</t>
+          <t>utilitarian</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>~에 뒤이어, ~의 결과로서</t>
+          <t>공리주의자</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>critique</t>
+          <t>pragmatist</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>비평, 비판</t>
+          <t>실용주의자</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -7438,17 +7438,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>utilitarian</t>
+          <t>advocate</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>공리주의자</t>
+          <t>옹호하다, 주장하다</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -7458,37 +7458,37 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>pragmatist</t>
+          <t>arguably</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>실용주의자</t>
+          <t>주장하건대, 거의 틀림없이</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>advocate</t>
+          <t>laudation</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>옹호하다, 주장하다</t>
+          <t>칭찬, 찬미</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -7498,32 +7498,32 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>arguably</t>
+          <t>homage</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>주장하건대, 거의 틀림없이</t>
+          <t>경의</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>laudation</t>
+          <t>exuberbce</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>칭찬, 찬미</t>
+          <t>풍부, 무성, 충일(넘쳐흐름)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -7538,12 +7538,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>homage</t>
+          <t>sobriety</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>경의</t>
+          <t>맨정신, 냉정, 절주, 절제</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7558,52 +7558,52 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>exuberbce</t>
+          <t>disparaging</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>풍부, 무성, 충일(넘쳐흐름)</t>
+          <t>비난하는, 폄하하는, 경멸하는, 헐뜯는</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>sobriety</t>
+          <t>relent</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>맨정신, 냉정, 절주, 절제</t>
+          <t>누그러지다, 가엽게 여기다</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>disparaging</t>
+          <t>exquisite</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>비난하는, 폄하하는, 경멸하는, 헐뜯는</t>
+          <t>정교한, 세련된</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -7612,38 +7612,38 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>relent</t>
+          <t>scrupulous</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>누그러지다, 가엽게 여기다</t>
+          <t>면밀한, 양심적인</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>exquisite</t>
+          <t>disinterested</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>정교한, 세련된</t>
+          <t>사심 없는, 청렴한, 공평한</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -7652,18 +7652,18 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>scrupulous</t>
+          <t>sworn</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>면밀한, 양심적인</t>
+          <t>선서한</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -7672,23 +7672,23 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>disinterested</t>
+          <t>get cold feet</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>사심 없는, 청렴한, 공평한</t>
+          <t>겁먹다</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D363" t="n">
@@ -7698,12 +7698,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>sworn</t>
+          <t>intimidating</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>선서한</t>
+          <t>위협하는</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -7712,18 +7712,18 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>get cold feet</t>
+          <t>make do with</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>겁먹다</t>
+          <t>임시변통하다</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -7738,32 +7738,32 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>intimidating</t>
+          <t>undermine</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>위협하는</t>
+          <t>약화시키다</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>make do with</t>
+          <t>stand out</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>임시변통하다</t>
+          <t>두드러지다, 돋보이다</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -7772,23 +7772,23 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>undermine</t>
+          <t>털어놓다</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>약화시키다</t>
+          <t>let on</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>let</t>
         </is>
       </c>
       <c r="D368" t="n">
@@ -7798,17 +7798,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>stand out</t>
+          <t>면하게 하다</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>두드러지다, 돋보이다</t>
+          <t>let off</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>let</t>
         </is>
       </c>
       <c r="D369" t="n">
@@ -7818,12 +7818,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>털어놓다</t>
+          <t>누그러지다</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>let on</t>
+          <t>let up</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -7838,12 +7838,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>면하게 하다</t>
+          <t>실망시키다</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>let off</t>
+          <t>let down</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -7852,43 +7852,43 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>누그러지다</t>
+          <t>pompous</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>let up</t>
+          <t>잘난체 하는</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>실망시키다</t>
+          <t>presumptuous</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>let down</t>
+          <t>건방진</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -7898,17 +7898,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>pompous</t>
+          <t>dislocate</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>잘난체 하는</t>
+          <t>혼란에 빠뜨리다</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D374" t="n">
@@ -7918,17 +7918,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>presumptuous</t>
+          <t>retrieve</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>건방진</t>
+          <t>회수하다</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -7938,12 +7938,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>dislocate</t>
+          <t>revoke</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>혼란에 빠뜨리다</t>
+          <t>폐지하다</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -7958,12 +7958,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>retrieve</t>
+          <t>grapple</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>회수하다</t>
+          <t>붙잡다, 쥐다</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7978,12 +7978,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>revoke</t>
+          <t>exploit</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>폐지하다</t>
+          <t>착취하다</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -7998,37 +7998,37 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>grapple</t>
+          <t>conciliatory</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>붙잡다, 쥐다</t>
+          <t>달래는, 회유적인</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>evoke</t>
+          <t>assured</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>감정을 환기시키다</t>
+          <t>확실한, 확신 있는</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D380" t="n">
@@ -8038,17 +8038,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>exploit</t>
+          <t>punitive</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>착취하다</t>
+          <t>형벌의</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -8058,32 +8058,32 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>conciliatory</t>
+          <t>acquiesce</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>달래는, 회유적인</t>
+          <t>묵인하다</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>assured</t>
+          <t>distracted</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>확실한, 확신 있는</t>
+          <t>마음이 산란한</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8098,17 +8098,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>punitive</t>
+          <t>증오, 혐오</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>형벌의</t>
+          <t>odium</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>o</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -8118,72 +8118,72 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>flattering</t>
+          <t>웅변가</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>아첨하는, 빌붙는</t>
+          <t>orator</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>o</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>appease</t>
+          <t>신탁</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>달래다, 진정시키다</t>
+          <t>oracle</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>o</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>acquiesce</t>
+          <t>반계몽주의</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>묵인하다</t>
+          <t>obscurantism</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>o</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>distracted</t>
+          <t>submissive</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>마음이 산란한</t>
+          <t>복종하는, 순종적인</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -8198,17 +8198,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>증오, 혐오</t>
+          <t>perplexed</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>odium</t>
+          <t>당황한</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D389" t="n">
@@ -8218,57 +8218,57 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>웅변가</t>
+          <t>calumniate</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>orator</t>
+          <t>비방하다</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>신탁</t>
+          <t>wangle</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>oracle</t>
+          <t>얻어내다</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>반계몽주의</t>
+          <t>suffuse</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>obscurantism</t>
+          <t>퍼지다, 뒤덮다</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D392" t="n">
@@ -8278,97 +8278,97 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>submissive</t>
+          <t>redress</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>복종하는, 순종적인</t>
+          <t>사정하다, 바로잡다</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>perplexed</t>
+          <t>predisposition</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>당황한</t>
+          <t>경향, 성질</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>calumniate</t>
+          <t>demeanor</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>비방하다</t>
+          <t>태도, 품행</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>wangle</t>
+          <t>gratitude</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>얻어내다</t>
+          <t>감사</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>suffuse</t>
+          <t>sheer</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>퍼지다, 뒤덮다</t>
+          <t>순전한</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D397" t="n">
@@ -8378,17 +8378,17 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>redress</t>
+          <t>utter</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>사정하다, 바로잡다</t>
+          <t>순전한</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D398" t="n">
@@ -8398,37 +8398,37 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>predisposition</t>
+          <t>engross</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>경향, 성질</t>
+          <t>몰두하게 만들다</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>demeanor</t>
+          <t>preoccupied with</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>태도, 품행</t>
+          <t>~에 몰두한, ~에 집착하는</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D400" t="n">
@@ -8438,32 +8438,32 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>gratitude</t>
+          <t>slow to a trickle</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>감사</t>
+          <t>눈곱만큼으로 줄어들다</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>sheer</t>
+          <t>apathetic to</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>순전한</t>
+          <t>~에 대해 냉담한</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -8472,18 +8472,18 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>utter</t>
+          <t>unequivocal</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>순전한</t>
+          <t>명료한, 모호하지 않은</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -8498,32 +8498,32 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>engross</t>
+          <t>careprovider</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>몰두하게 만들다</t>
+          <t>의료인</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>preoccupied with</t>
+          <t>cavalier</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>~에 몰두한, ~에 집착하는</t>
+          <t>무신경한; 기사다운, 호탕한, 거만한</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -8532,23 +8532,23 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>slow to a trickle</t>
+          <t>reticent</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>눈곱만큼으로 줄어들다</t>
+          <t>과묵한, 말이 적은</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D406" t="n">
@@ -8558,12 +8558,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>apathetic to</t>
+          <t>snobbish</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>~에 대해 냉담한</t>
+          <t>속물적인</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -8572,18 +8572,18 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>unequivocal</t>
+          <t>apathetic</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>명료한, 모호하지 않은</t>
+          <t>냉담한, 무관심한</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8592,63 +8592,63 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>careprovider</t>
+          <t>appalling</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>의료인</t>
+          <t>섬뜩한, 끔찍한; 지독한, 형편없는</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D409" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>cavalier</t>
+          <t>lodge</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>무신경한; 기사다운, 호탕한, 거만한</t>
+          <t>박히다 | 숙박하다, 오두막</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>reticent</t>
+          <t>sore throat</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>과묵한, 말이 적은</t>
+          <t>인후염 | 감기 따위로 인하여 인두와 후두 점막에 생기는 염증</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D411" t="n">
@@ -8658,72 +8658,72 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>snobbish</t>
+          <t>choking</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>속물적인</t>
+          <t>숨막힘, 질식, 숨막히는</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>apathetic</t>
+          <t>entangle</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>냉담한, 무관심한</t>
+          <t>얽히게 하다, (곤경 등에) 빠뜨리다</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>appalling</t>
+          <t>swivel</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>섬뜩한, 끔찍한; 지독한, 형편없는</t>
+          <t>회전시키다, 돌리다</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>lodge</t>
+          <t>tout</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>박히다 | 숙박하다, 오두막</t>
+          <t>(설득하기 위해) 장점을 내세우다| 제품을 홍보(광고)하다, 극구 칭찬하다, 과장하여 선전하다</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -8732,43 +8732,43 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>sore throat</t>
+          <t>glisten</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>인후염 | 감기 따위로 인하여 인두와 후두 점막에 생기는 염증</t>
+          <t>반짝이다, 빛나다</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D416" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>choking</t>
+          <t>shore up</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>숨막힘, 질식, 숨막히는</t>
+          <t>강화하다</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D417" t="n">
@@ -8778,17 +8778,17 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>entangle</t>
+          <t>reserve</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>얽히게 하다, (곤경 등에) 빠뜨리다</t>
+          <t>예비, 준비(적립)금</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D418" t="n">
@@ -8798,12 +8798,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>swivel</t>
+          <t>put in place</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>회전시키다, 돌리다</t>
+          <t>마련하다, 실시(시행)하다</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -8818,12 +8818,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>tout</t>
+          <t>bolster</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>(설득하기 위해) 장점을 내세우다| 제품을 홍보(광고)하다, 극구 칭찬하다, 과장하여 선전하다</t>
+          <t>강화하다</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -8838,12 +8838,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>glisten</t>
+          <t>assess</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>반짝이다, 빛나다</t>
+          <t>평가하다</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -8852,18 +8852,18 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>shore up</t>
+          <t>stake out</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>강화하다</t>
+          <t>감시하다</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -8878,32 +8878,32 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>reserve</t>
+          <t>stave off</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>예비, 준비(적립)금</t>
+          <t>피하다</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>put in place</t>
+          <t>rake up</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>마련하다, 실시(시행)하다</t>
+          <t>긁어모으다</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -8918,12 +8918,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>bolster</t>
+          <t>fritter away</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>강화하다</t>
+          <t>낭비하다</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -8938,12 +8938,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>assess</t>
+          <t>take in by</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>평가하다</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -8952,18 +8952,18 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>stake out</t>
+          <t>deceive</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>감시하다</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -8972,18 +8972,18 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>stave off</t>
+          <t>make a face</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>피하다</t>
+          <t>얼굴을 찌푸리다</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -8992,18 +8992,18 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>rake up</t>
+          <t>grimace</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>긁어모으다</t>
+          <t>얼굴을 찌푸리다</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -9018,12 +9018,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>fritter away</t>
+          <t>rejoice</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>낭비하다</t>
+          <t>기뻐하다, 즐겁게 하다</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -9032,43 +9032,43 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>take in by</t>
+          <t>너털웃음, 껄껄웃음</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>guffaw</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>웃음</t>
         </is>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>deceive</t>
+          <t>포복절도, 배꼽잡는 웃음</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>belly laugh</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>웃음</t>
         </is>
       </c>
       <c r="D432" t="n">
@@ -9078,37 +9078,37 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>make a face</t>
+          <t>낄낄 웃음</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>얼굴을 찌푸리다</t>
+          <t>chuckle</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>웃음</t>
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>grimace</t>
+          <t>능글맞은 웃음, 억지웃음</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>얼굴을 찌푸리다</t>
+          <t>smirk</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>웃음</t>
         </is>
       </c>
       <c r="D434" t="n">
@@ -9118,17 +9118,17 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>rejoice</t>
+          <t>킥킥 웃음</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>기뻐하다, 즐겁게 하다</t>
+          <t>giggle</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>웃음</t>
         </is>
       </c>
       <c r="D435" t="n">
@@ -9138,37 +9138,37 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>너털웃음, 껄껄웃음</t>
+          <t>cozen</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>guffaw</t>
+          <t>속이다</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>웃음</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>포복절도, 배꼽잡는 웃음</t>
+          <t>play havoc with</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>belly laugh</t>
+          <t>엉망으로 만들다, 황폐하게 하다, 아수라장으로 만들다</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>웃음</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D437" t="n">
@@ -9178,72 +9178,72 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>낄낄 웃음</t>
+          <t>lane</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>chuckle</t>
+          <t>시골길</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>웃음</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D438" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>능글맞은 웃음, 억지웃음</t>
+          <t>hedgerow</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>smirk</t>
+          <t>산울타리</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>웃음</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>킥킥 웃음</t>
+          <t>bustle in and out</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>giggle</t>
+          <t>사방으로 부산히 움직이다</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>웃음</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D440" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>cozen</t>
+          <t>see eye to eye</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>속이다</t>
+          <t>의견을 같이하다</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -9252,18 +9252,18 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>play havoc with</t>
+          <t>part</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>엉망으로 만들다, 황폐하게 하다, 아수라장으로 만들다</t>
+          <t>깨지다, 갈라지다, 관계를 끊다</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -9272,23 +9272,23 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>lane</t>
+          <t>redundant</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>시골길</t>
+          <t>여분의</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D443" t="n">
@@ -9298,32 +9298,32 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>hedgerow</t>
+          <t>pace</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>산울타리</t>
+          <t>속도(보조)를 조절하다</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D444" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>bustle in and out</t>
+          <t>brush aside</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>사방으로 부산히 움직이다</t>
+          <t>무시하다</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -9332,18 +9332,18 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>see eye to eye</t>
+          <t>dismiss</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>의견을 같이하다</t>
+          <t>무시하다</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -9358,12 +9358,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>part</t>
+          <t>elucidate</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>깨지다, 갈라지다, 관계를 끊다</t>
+          <t>설명하다, 밝히다</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -9378,37 +9378,37 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>redundant</t>
+          <t>밝혀지다</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>여분의</t>
+          <t>turn out</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="D448" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>pace</t>
+          <t>의지하다</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>속도(보조)를 조절하다</t>
+          <t>turn to</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="D449" t="n">
@@ -9418,17 +9418,17 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>brush aside</t>
+          <t>~으로 변하다</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>무시하다</t>
+          <t>turn into</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -9438,37 +9438,37 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>dismiss</t>
+          <t>~을 뒤집다, ~을 숙고하다</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>무시하다</t>
+          <t>turn over</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>advocate</t>
+          <t>~에서 쫓아내다</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>옹호하다, 변호하다</t>
+          <t>turn out of</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>turn</t>
         </is>
       </c>
       <c r="D452" t="n">
@@ -9478,12 +9478,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>elucidate</t>
+          <t>slander</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>설명하다, 밝히다</t>
+          <t>비방하다, 명예를 훼손하다</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -9492,23 +9492,23 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>밝혀지다</t>
+          <t>libel</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>turn out</t>
+          <t>명예를 훼손하다</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D454" t="n">
@@ -9518,37 +9518,37 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>의지하다</t>
+          <t>calmniate</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>turn to</t>
+          <t>비방하다</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>~으로 변하다</t>
+          <t>commend</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>turn into</t>
+          <t>칭찬하다</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D456" t="n">
@@ -9558,17 +9558,17 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>~을 뒤집다, ~을 숙고하다</t>
+          <t>depreciate</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>turn over</t>
+          <t>헐뜯다</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D457" t="n">
@@ -9578,37 +9578,37 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>~에서 쫓아내다</t>
+          <t>laid-back</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>turn out of</t>
+          <t>느긋한, 마음 편한</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>turn</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D458" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>slander</t>
+          <t>mettlesome</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>비방하다, 명예를 훼손하다</t>
+          <t>기운찬, 위세 있는</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D459" t="n">
@@ -9618,17 +9618,17 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>libel</t>
+          <t>mousy</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>명예를 훼손하다</t>
+          <t>조용한, 내성적인</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D460" t="n">
@@ -9638,17 +9638,17 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>calmniate</t>
+          <t>blithe</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>비방하다</t>
+          <t>태평스러운, 쾌활한, 행복한</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D461" t="n">
@@ -9658,17 +9658,17 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>commend</t>
+          <t>hyaloid</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>칭찬하다</t>
+          <t>투명한, 유리 모양의</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D462" t="n">
@@ -9678,12 +9678,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>depreciate</t>
+          <t>fetter</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>헐뜯다</t>
+          <t>구속하다, 속박하다</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -9692,43 +9692,43 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>laid-back</t>
+          <t>nod through</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>느긋한, 마음 편한</t>
+          <t>고개를 끄덕여 승인하다, 수긍하다</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>mettlesome</t>
+          <t>exempt from</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>기운찬, 위세 있는</t>
+          <t>~을 면제하다</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D465" t="n">
@@ -9738,17 +9738,17 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>mousy</t>
+          <t>comply with</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>조용한, 내성적인</t>
+          <t>순응하다, 준수하다</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D466" t="n">
@@ -9758,32 +9758,32 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>blithe</t>
+          <t>emancipate</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>태평스러운, 쾌활한, 행복한</t>
+          <t>해방시키다</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>hyaloid</t>
+          <t>discursive</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>투명한, 유리 모양의</t>
+          <t>두서없는, 산만한</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -9792,23 +9792,23 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>fetter</t>
+          <t>meandering</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>구속하다, 속박하다</t>
+          <t>두서없는, 산만한</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D469" t="n">
@@ -9818,37 +9818,37 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>nod through</t>
+          <t>quixotic</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>고개를 끄덕여 승인하다, 수긍하다</t>
+          <t>비실제적인</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D470" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>exempt from</t>
+          <t>railing</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>~을 면제하다</t>
+          <t>매도하는, 욕설하는</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D471" t="n">
@@ -9858,32 +9858,32 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>comply with</t>
+          <t>brittle</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>순응하다, 준수하다</t>
+          <t>부서지기 쉬운, 과민한</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D472" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>emancipate</t>
+          <t>annul</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>해방시키다</t>
+          <t>무효로 하다, 취소하다</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -9892,23 +9892,23 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>discursive</t>
+          <t>hammer out</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>두서없는, 산만한</t>
+          <t>강구해내다, 해결하다</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D474" t="n">
@@ -9918,17 +9918,17 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>meandering</t>
+          <t>baron</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>두서없는, 산만한</t>
+          <t>귀족, 남작</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D475" t="n">
@@ -9938,97 +9938,97 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>quixotic</t>
+          <t>renounce</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>비실제적인</t>
+          <t>포기하다, 단념하다</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D476" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>railing</t>
+          <t>alteration</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>매도하는, 욕설하는</t>
+          <t>변경</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D477" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>brittle</t>
+          <t>alleiance</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>부서지기 쉬운, 과민한</t>
+          <t>충성</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D478" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>annul</t>
+          <t>alleviation</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>무효로 하다, 취소하다</t>
+          <t>완화</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>hammer out</t>
+          <t>alliteration</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>강구해내다, 해결하다</t>
+          <t>두운, 두운법칙</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D480" t="n">
@@ -10038,12 +10038,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>baron</t>
+          <t>ammunition</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>귀족, 남작</t>
+          <t>탄약, 무기</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -10058,12 +10058,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>renounce</t>
+          <t>preclude</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>포기하다, 단념하다</t>
+          <t>막다, 방해하다| hamper</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -10072,43 +10072,43 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>homage</t>
+          <t>hail</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>존경, 충성</t>
+          <t>경의를 표하다</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D483" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>alteration</t>
+          <t>hop off</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>변경</t>
+          <t>이륙하다</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D484" t="n">
@@ -10118,92 +10118,92 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>alleiance</t>
+          <t>put down</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>충성</t>
+          <t>적어두다, 신청하다, 착륙하다</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>alleviation</t>
+          <t>take back from</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>완화</t>
+          <t>인수하다</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>alliteration</t>
+          <t>contrive</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>두운, 두운법칙</t>
+          <t>고안하다, 설계하다, 꾀하다</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D487" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ammunition</t>
+          <t>resolve</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>탄약, 무기</t>
+          <t>해결하다, 결심하다, 분해하다</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D488" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>preclude</t>
+          <t>pronounce</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>막다, 방해하다| hamper</t>
+          <t>주장하다, 진술하다, 발음하다</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -10212,23 +10212,23 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>hail</t>
+          <t>assertory</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>경의를 표하다</t>
+          <t>긍정적인, 단정적인</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D490" t="n">
@@ -10238,17 +10238,17 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>hop off</t>
+          <t>verdict</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>이륙하다</t>
+          <t>판결, 평결</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D491" t="n">
@@ -10258,17 +10258,17 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>put down</t>
+          <t>추천서</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>적어두다, 신청하다, 착륙하다</t>
+          <t>reference letter</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>서적</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -10278,17 +10278,17 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>take back from</t>
+          <t>자서전</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>인수하다</t>
+          <t>autobiography</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>서적</t>
         </is>
       </c>
       <c r="D493" t="n">
@@ -10298,37 +10298,37 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>contrive</t>
+          <t>사망 기사</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>고안하다, 설계하다, 꾀하다</t>
+          <t>obituary</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>서적</t>
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>resolve</t>
+          <t>일기</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>해결하다, 결심하다, 분해하다</t>
+          <t>journal</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>서적</t>
         </is>
       </c>
       <c r="D495" t="n">
@@ -10338,17 +10338,17 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>pronounce</t>
+          <t>adorable</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>주장하다, 진술하다, 발음하다</t>
+          <t>귀여운</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D496" t="n">
@@ -10358,17 +10358,17 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>assertory</t>
+          <t>attraction</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>긍정적인, 단정적인</t>
+          <t>명물, 명소</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D497" t="n">
@@ -10378,12 +10378,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>verdict</t>
+          <t>ranch</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>판결, 평결</t>
+          <t>목장, 농장</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -10392,43 +10392,43 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>추천서</t>
+          <t>herd</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>reference letter</t>
+          <t>(짐승을) 몰다</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>서적</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D499" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>자서전</t>
+          <t>bronc</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>autobiography</t>
+          <t>야생</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>서적</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D500" t="n">
@@ -10438,72 +10438,72 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>사망 기사</t>
+          <t>legitimate</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>obituary</t>
+          <t>정통의| 진짜의, 합법의</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>서적</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D501" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>일기</t>
+          <t>encrypt</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>journal</t>
+          <t>암호화하다</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>서적</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D502" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>adorable</t>
+          <t>refine</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>귀여운</t>
+          <t>개선하다, 세련되게 하다</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D503" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>attraction</t>
+          <t>inroad</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>명물, 명소</t>
+          <t>침해, 침략, 침입</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -10512,18 +10512,18 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ranch</t>
+          <t>subordination</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>목장, 농장</t>
+          <t>복종, 종속 관계</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -10538,72 +10538,72 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>herd</t>
+          <t>in itself</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>(짐승을) 몰다</t>
+          <t>그 자체로, 본질적으로</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>bronc</t>
+          <t>in a nutshell</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>야생</t>
+          <t>간단히 말해, 간결하게</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>legitimate</t>
+          <t>de facto</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>정통의| 진짜의, 합법의</t>
+          <t>사실상의, 실제로</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>encrypt</t>
+          <t>squat</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>암호화하다</t>
+          <t>불법 거주하다| 쪼그리고 앉다</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -10612,83 +10612,83 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>refine</t>
+          <t>backlog</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>개선하다, 세련되게 하다</t>
+          <t>재고, 잔무, 밀린 일</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>inroad</t>
+          <t>stand</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>침해, 침략, 침입</t>
+          <t>(수준, 양 등이) ~이다</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>subordination</t>
+          <t>as such</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>복종, 종속 관계</t>
+          <t>그렇기 때문에, 그러함에 따라</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>in itself</t>
+          <t>resort to</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>그 자체로, 본질적으로</t>
+          <t>~에 의지하다, 기대다</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D513" t="n">
@@ -10698,17 +10698,17 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>in a nutshell</t>
+          <t>bracket</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>간단히 말해, 간결하게</t>
+          <t>계층</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D514" t="n">
@@ -10718,17 +10718,17 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>de facto</t>
+          <t>perpetrator</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>사실상의, 실제로</t>
+          <t>가해자</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D515" t="n">
@@ -10738,12 +10738,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>squat</t>
+          <t>contemplate</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>불법 거주하다| 쪼그리고 앉다</t>
+          <t>심사숙고하다</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -10758,32 +10758,32 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>backlog</t>
+          <t>obsess</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>재고, 잔무, 밀린 일</t>
+          <t>(종종 수동태) ~에 사로잡히다</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D517" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>stand</t>
+          <t>go through</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>(수준, 양 등이) ~이다</t>
+          <t>~을 살펴보다, 조사하다</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10792,58 +10792,58 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>as such</t>
+          <t>obliging</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>그렇기 때문에, 그러함에 따라</t>
+          <t>~하게 되는</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>resort to</t>
+          <t>rationalization</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>~에 의지하다, 기대다</t>
+          <t>합리화</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>bracket</t>
+          <t>self-deception</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>계층</t>
+          <t>자기 기만</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -10858,32 +10858,32 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>perpetrator</t>
+          <t>pose</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>가해자</t>
+          <t>제기하다</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D522" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>contemplate</t>
+          <t>conceive</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>심사숙고하다</t>
+          <t>생각하다</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -10892,23 +10892,23 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>obsess</t>
+          <t>reluctant</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>(종종 수동태) ~에 사로잡히다</t>
+          <t>꺼리는</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D524" t="n">
@@ -10918,12 +10918,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>go through</t>
+          <t>prevail</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>~을 살펴보다, 조사하다</t>
+          <t>만연하다</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -10932,43 +10932,43 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>obliging</t>
+          <t>assimilate</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>~하게 되는</t>
+          <t>일치시키다</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D526" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>rationalization</t>
+          <t>trade on</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>합리화</t>
+          <t>~을 이용하다</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D527" t="n">
@@ -10978,17 +10978,17 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>self-deception</t>
+          <t>reminiscent</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>자기 기만</t>
+          <t>연상시키는</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D528" t="n">
@@ -10998,17 +10998,17 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>pose</t>
+          <t>fatal</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>제기하다</t>
+          <t>치명적인</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D529" t="n">
@@ -11018,57 +11018,57 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>conceive</t>
+          <t>affected</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>생각하다</t>
+          <t>가장된</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D530" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>reluctant</t>
+          <t>nonchalance</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>꺼리는</t>
+          <t>태연함</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D531" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>prevail</t>
+          <t>zeal</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>만연하다</t>
+          <t>열의</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D532" t="n">
@@ -11078,32 +11078,32 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>assimilate</t>
+          <t>intermittently</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>일치시키다</t>
+          <t>간헐적으로</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D533" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>trade on</t>
+          <t>pore over</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>~을 이용하다</t>
+          <t>곰곰히 생각하다, 자세히 조사하다</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -11118,17 +11118,17 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>reminiscent</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>연상시키는</t>
+          <t>늘리다</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D535" t="n">
@@ -11138,57 +11138,57 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>fatal</t>
+          <t>convene</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>치명적인</t>
+          <t>소집하다</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>affected</t>
+          <t>efface</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>가장된</t>
+          <t>지우다, 삭제하다</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D537" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>nonchalance</t>
+          <t>allude</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>태연함</t>
+          <t>언급하다, 암시하다</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D538" t="n">
@@ -11198,17 +11198,17 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>zeal</t>
+          <t>ameliorate</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>열의</t>
+          <t>개선하다, 좋아지다</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D539" t="n">
@@ -11218,17 +11218,17 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>intermittently</t>
+          <t>exuberant</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>간헐적으로</t>
+          <t>넘치는, 열광적인, 풍부한</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D540" t="n">
@@ -11238,32 +11238,32 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>pore over</t>
+          <t>unceasing</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>곰곰히 생각하다, 자세히 조사하다</t>
+          <t>끊임없는</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D541" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>scour</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>늘리다</t>
+          <t>샅샅이 뒤지다</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -11278,12 +11278,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>convene</t>
+          <t>ransack</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>소집하다</t>
+          <t>샅샅이 뒤지다</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -11298,12 +11298,12 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>efface</t>
+          <t>enjoin</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>지우다, 삭제하다</t>
+          <t>요구하다</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -11318,12 +11318,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>allude</t>
+          <t>stray</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>언급하다, 암시하다</t>
+          <t>길을 잃다</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -11332,18 +11332,18 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ameliorate</t>
+          <t>allay</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>개선하다, 좋아지다</t>
+          <t>가라앉히다</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -11358,17 +11358,17 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>exuberant</t>
+          <t>모으다</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>넘치는, 열광적인, 풍부한</t>
+          <t>aggregate</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>aggregate vs aggravate</t>
         </is>
       </c>
       <c r="D547" t="n">
@@ -11378,32 +11378,32 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>unceasing</t>
+          <t>약화시키다</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>끊임없는</t>
+          <t>aggravate</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>aggregate vs aggravate</t>
         </is>
       </c>
       <c r="D548" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>scour</t>
+          <t>aggregate</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>샅샅이 뒤지다</t>
+          <t>모으다</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -11412,38 +11412,38 @@
         </is>
       </c>
       <c r="D549" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ransack</t>
+          <t>at the drop of a hat</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>샅샅이 뒤지다</t>
+          <t>즉시</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>부사</t>
         </is>
       </c>
       <c r="D550" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>enjoin</t>
+          <t>clamor</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>요구하다</t>
+          <t>떠들어대다, 요구하다</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
@@ -11452,18 +11452,18 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>stray</t>
+          <t>clamp down to</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>길을 잃다</t>
+          <t>탄압하다</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
@@ -11472,18 +11472,18 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>allay</t>
+          <t>crack down to</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>가라앉히다</t>
+          <t>탄압하다</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -11498,57 +11498,57 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>모으다</t>
+          <t>매혹하다, 마음을 사로잡다</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>aggregate</t>
+          <t>captivate</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>aggregate vs aggravate</t>
+          <t>captivate vs capitulate</t>
         </is>
       </c>
       <c r="D554" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>약화시키다</t>
+          <t>굴복하다</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>aggravate</t>
+          <t>capitulate</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>aggregate vs aggravate</t>
+          <t>captivate vs capitulate</t>
         </is>
       </c>
       <c r="D555" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>aggregate</t>
+          <t>몹시 기쁘게 하다</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>모으다</t>
+          <t>exalt</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>exalt vs exhort</t>
         </is>
       </c>
       <c r="D556" t="n">
@@ -11558,17 +11558,17 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>aggravate</t>
+          <t>권고하다</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>약화시키다</t>
+          <t>exhort</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>exalt vs exhort</t>
         </is>
       </c>
       <c r="D557" t="n">
@@ -11578,37 +11578,37 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>at the drop of a hat</t>
+          <t>delirious</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>즉시</t>
+          <t>정신 착란의</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>부사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D558" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>clamor</t>
+          <t>amiable</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>떠들어대다, 요구하다</t>
+          <t>상냥한</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D559" t="n">
@@ -11618,77 +11618,77 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>clamp down to</t>
+          <t>deciduous</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>탄압하다</t>
+          <t>낙엽성의</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D560" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>crack down to</t>
+          <t>mournful</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>탄압하다</t>
+          <t>애도하는</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D561" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>매혹하다, 마음을 사로잡다</t>
+          <t>dank</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>captivate</t>
+          <t>눅눅한</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>captivate vs capitulate</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D562" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>굴복하다</t>
+          <t>sparse</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>capitulate</t>
+          <t>부족한</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>captivate vs capitulate</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D563" t="n">
@@ -11698,17 +11698,17 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>몹시 기쁘게 하다</t>
+          <t>numb</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>exalt</t>
+          <t>무감각한</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>exalt vs exhort</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D564" t="n">
@@ -11718,17 +11718,17 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>권고하다</t>
+          <t>alias</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>exhort</t>
+          <t>가명</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>exalt vs exhort</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D565" t="n">
@@ -11738,17 +11738,17 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>delirious</t>
+          <t>alchemist</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>정신 착란의</t>
+          <t>연금술사</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D566" t="n">
@@ -11758,37 +11758,37 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>amiable</t>
+          <t>appretice</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>상냥한</t>
+          <t>수습생</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D567" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>deciduous</t>
+          <t>avarice</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>낙엽성의</t>
+          <t>탐욕</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D568" t="n">
@@ -11798,12 +11798,12 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>mournful</t>
+          <t>endurable</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>애도하는</t>
+          <t>참을 수 있는</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -11818,12 +11818,12 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>dank</t>
+          <t>valuable</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>눅눅한</t>
+          <t>값비싼</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
@@ -11832,18 +11832,18 @@
         </is>
       </c>
       <c r="D570" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>sparse</t>
+          <t>precarious</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>부족한</t>
+          <t>불안정한, 위험한</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
@@ -11858,12 +11858,12 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>numb</t>
+          <t>nimble</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>무감각한</t>
+          <t>빠른, 날렵한, 민첩한, 영리한</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
@@ -11872,23 +11872,23 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>alias</t>
+          <t>extensive</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>가명</t>
+          <t>폭넓은</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D573" t="n">
@@ -11898,37 +11898,37 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>alchemist</t>
+          <t>prevalent</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>연금술사</t>
+          <t>널리 퍼져 있는</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D574" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>appretice</t>
+          <t>competent</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>수습생</t>
+          <t>능숙한</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D575" t="n">
@@ -11938,32 +11938,32 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>avarice</t>
+          <t>refractory</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>탐욕</t>
+          <t>다루기 힘든</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>명사</t>
+          <t>형용사</t>
         </is>
       </c>
       <c r="D576" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>endurable</t>
+          <t>fierce</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>참을 수 있는</t>
+          <t>격렬한</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -11972,18 +11972,18 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>valuable</t>
+          <t>spurious</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>값비싼</t>
+          <t>가짜의, 위조의, 겉치레의</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -11998,32 +11998,32 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>precarious</t>
+          <t>decompose</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>불안정한, 위험한</t>
+          <t>분해되다</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>동사</t>
         </is>
       </c>
       <c r="D579" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>nimble</t>
+          <t>prosperous</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>빠른, 날렵한, 민첩한, 영리한</t>
+          <t>번영하는</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
@@ -12038,17 +12038,17 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>extensive</t>
+          <t>virulency</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>폭넓은</t>
+          <t>독성</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D581" t="n">
@@ -12058,97 +12058,97 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>prevalent</t>
+          <t>trepidation</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>널리 퍼져 있는</t>
+          <t>공포</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D582" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>competent</t>
+          <t>pinnacle</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>능숙한</t>
+          <t>정점</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D583" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>refractory</t>
+          <t>acme</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>다루기 힘든</t>
+          <t>정점</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D584" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>fierce</t>
+          <t>apex</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>격렬한</t>
+          <t>정점</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D585" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>spurious</t>
+          <t>culmination</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>가짜의, 위조의, 겉치레의</t>
+          <t>정점</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>형용사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D586" t="n">
@@ -12158,181 +12158,21 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>decompose</t>
+          <t>nadir</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>분해되다</t>
+          <t>바닥</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>동사</t>
+          <t>명사</t>
         </is>
       </c>
       <c r="D587" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>prosperous</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>번영하는</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr">
-        <is>
-          <t>형용사</t>
-        </is>
-      </c>
-      <c r="D588" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>virulency</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>독성</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
-      </c>
-      <c r="D589" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>trepidation</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>공포</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
-      </c>
-      <c r="D590" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>pinnacle</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>정점</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
-      </c>
-      <c r="D591" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>acme</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>정점</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
-      </c>
-      <c r="D592" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>apex</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>정점</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
-      </c>
-      <c r="D593" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>culmination</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>정점</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
-      </c>
-      <c r="D594" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>nadir</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>바닥</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr">
-        <is>
-          <t>명사</t>
-        </is>
-      </c>
-      <c r="D595" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
